--- a/biology/Biochimie/Butane-2,3-diol/Butane-2,3-diol.xlsx
+++ b/biology/Biochimie/Butane-2,3-diol/Butane-2,3-diol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le butane-2,3-diol (2,3-butylène glycol), de formule C4H10O2, est une substance cristalline incolore souvent liquide à cause de son point de fusion (23 °C[réf. souhaitée]), soluble dans l'eau et l'alcool.
@@ -489,7 +501,7 @@
 (2S, 3S)-butane-2,3-diol ;
 (2R, 3S)-butane-2,3-diol.
 La forme naturelle est (2R, 3R)-butane-2,3-diol. Certaines fermentations produisent le (2R, 3R)-butane-2,3-diol.
-Durant la Seconde Guerre mondiale, le butane-2,3-diol fut déshydraté en butadiène pour fabriquer du caoutchouc synthétique[7].
+Durant la Seconde Guerre mondiale, le butane-2,3-diol fut déshydraté en butadiène pour fabriquer du caoutchouc synthétique.
 Le 2,3-butanediol est un des composants importants de l'arôme beurré, de l'odeur de crème et de l'arôme de noisette.
 Présent également dans le vin, il bout à 179 °C[réf. souhaitée]. Il est utilisé dans les résines et comme solvant de certains colorants. On le trouve dans l'amidon et la betterave sucrière.
 La fermentation du glucose, dite « fermentation butyrique », produit du butane-2,3-diol qui est un des produits finaux.
